--- a/data/trans_bre/CONS_ALER-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-38,9%</t>
+          <t>10,82%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 2,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; 1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 1,69</t>
+          <t>-4,04; 5,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,96; 160,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 161,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,77; 46,07</t>
+          <t>-40,73; 120,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>385,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-56,62%</t>
+          <t>-1,13%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 5,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 55,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -0,33</t>
+          <t>-5,12; 4,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,39; 358,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,15; 2895,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,44; 5,37</t>
+          <t>-53,18; 88,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,58</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,17</t>
+          <t>-1,26; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 4,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,01</t>
+          <t>-3,84; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,18; 200,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; 153,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 187,75</t>
+          <t>-47,63; 70,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>132,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,94%</t>
+          <t>180,68%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,07</t>
+          <t>0,11; 4,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,34</t>
+          <t>0,65; 6,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,03</t>
+          <t>1,51; 7,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 89,93</t>
+          <t>0,08; 162,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,46; 205,15</t>
+          <t>8,02; 635,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 79,27</t>
+          <t>26,94; 465,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>311,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>115,8%</t>
+          <t>197,93%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 4,12</t>
+          <t>-0,98; 3,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 14,07</t>
+          <t>1,75; 6,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,25</t>
+          <t>2,09; 8,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 86,46</t>
+          <t>-28,45; 171,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 393,58</t>
+          <t>54,18; 981,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 373,28</t>
+          <t>41,43; 534,14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>16,47%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,97</t>
+          <t>-2,81; 1,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,42</t>
+          <t>-4,11; 2,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,27</t>
+          <t>-1,84; 3,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 62,5</t>
+          <t>-48,74; 60,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 134,78</t>
+          <t>-75,67; 135,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 183,06</t>
+          <t>-40,31; 106,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>154,81%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>56,8%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,65</t>
+          <t>-1,39; 2,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,85</t>
+          <t>-0,8; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,59</t>
+          <t>-0,74; 4,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,29; 420,64</t>
+          <t>-38,09; 134,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 124,82</t>
+          <t>-32,51; 445,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 127,0</t>
+          <t>-21,08; 222,91</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>200,16%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>162,94%</t>
+          <t>129,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>42,8%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,4</t>
+          <t>0,15; 1,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,44</t>
+          <t>0,77; 14,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,11</t>
+          <t>0,59; 3,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,45; 584,53</t>
+          <t>4,04; 69,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,89; 482,26</t>
+          <t>18,42; 541,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 97,69</t>
+          <t>11,4; 79,02</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>24,66%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>75,75%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>20,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 3,52</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 3,18</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 2,66</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-30,18; 114,51</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-28,53; 273,03</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-28,58; 91,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>59,77%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>20,53%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>26,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 4,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 2,26</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 2,4</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; 192,26</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-43,08; 163,23</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-29,64; 124,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>44,16%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>50,42%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>15,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 3,12</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 3,25</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 1,25</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>15,61; 78,17</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>14,4; 105,24</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 41,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_ALER-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,22</t>
+          <t>-1,86; 2,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 1,41</t>
+          <t>-10,18; 1,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 160,16</t>
+          <t>-65,79; 258,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,27</t>
+          <t>-100,0; 178,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>70,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,18</t>
+          <t>-0,88; 4,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 55,44</t>
+          <t>-1,28; 54,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 358,79</t>
+          <t>-29,81; 324,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 2895,7</t>
+          <t>-25,79; 2615,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,3</t>
+          <t>-1,38; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,4</t>
+          <t>-1,94; 4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 200,46</t>
+          <t>-40,23; 146,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 153,72</t>
+          <t>-30,87; 165,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,31%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,85</t>
+          <t>-0,46; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,86</t>
+          <t>0,64; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 162,61</t>
+          <t>-11,21; 158,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 635,45</t>
+          <t>5,48; 717,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,26</t>
+          <t>-0,62; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,25</t>
+          <t>1,63; 6,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 171,27</t>
+          <t>-20,37; 164,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,18; 981,59</t>
+          <t>34,97; 1259,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,94</t>
+          <t>-2,22; 1,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,83</t>
+          <t>-4,27; 2,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 60,18</t>
+          <t>-44,36; 56,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,67; 135,07</t>
+          <t>-84,39; 116,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,48</t>
+          <t>-1,66; 2,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,15</t>
+          <t>-1,02; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 134,99</t>
+          <t>-37,78; 115,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 445,95</t>
+          <t>-33,05; 436,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,89</t>
+          <t>-0,01; 1,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 14,9</t>
+          <t>0,68; 14,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,04; 69,92</t>
+          <t>-0,01; 63,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,42; 541,14</t>
+          <t>20,43; 558,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_ALER-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-44,94%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>5,63%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-62,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,82%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-7,4; 2,37</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 5,96</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,86; 2,47</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 1,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 5,96</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 180,51</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-40,73; 120,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-65,79; 258,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 178,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-40,73; 120,27</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,74</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>21,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>70,99%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>385,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,33; 5,85</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 4,02</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,88; 4,33</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 54,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 4,02</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-48,63; 200,27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-53,18; 88,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-29,81; 324,54</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-25,79; 2615,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-53,18; 88,11</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>25,27%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,73%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,16; 4,15</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 2,94</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,38; 2,56</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 4,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 2,94</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-32,54; 129,7</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-47,63; 70,8</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-40,23; 146,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-30,87; 165,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-47,63; 70,8</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,57</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>46,55%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>180,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>43,55%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>132,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>180,68%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,84; 4,76</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 7,13</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,46; 3,97</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 6,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 7,13</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-16,99; 177,24</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26,94; 465,16</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-11,21; 158,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 717,53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>26,94; 465,16</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>241,48%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>197,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>44,22%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>311,06%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>197,93%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,29; 5,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 8,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-0,62; 3,16</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 6,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 8,02</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>28,12; 847,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41,43; 534,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-20,37; 164,35</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>34,97; 1259,94</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>41,43; 534,14</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-0,22</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>80,39%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-5,61%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,47%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-0,68; 5,09</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 3,07</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-2,22; 1,74</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 2,44</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 3,07</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-22,26; 367,77</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-40,31; 106,42</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-44,36; 56,67</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-84,39; 116,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-40,31; 106,42</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,57</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>92,25%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>56,8%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>17,18%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>89,09%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>56,8%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,07; 4,17</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,62</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-1,66; 2,57</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 4,03</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 4,62</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-33,74; 446,13</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-21,08; 222,91</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-37,78; 115,46</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; 436,67</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-21,08; 222,91</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>43,27%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>28,91%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>129,95%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>42,8%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,36; 2,76</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 3,12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-0,01; 1,68</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 14,16</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 3,12</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>6,87; 92,96</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 79,02</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-0,01; 63,19</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>20,43; 558,95</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>11,4; 79,02</t>
         </is>
       </c>
     </row>
